--- a/data/management/Management_information_HAN_2017.xlsx
+++ b/data/management/Management_information_HAN_2017.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F23881-13E7-AB48-9B9E-6ABBB01661A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13605" yWindow="180" windowWidth="14430" windowHeight="12780"/>
+    <workbookView xWindow="5340" yWindow="500" windowWidth="30400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="114">
   <si>
     <t xml:space="preserve">Correspondence </t>
   </si>
@@ -51,9 +57,6 @@
     <t>3rd nitrogen application</t>
   </si>
   <si>
-    <t>others</t>
-  </si>
-  <si>
     <t>Plant protection</t>
   </si>
   <si>
@@ -273,9 +276,6 @@
     <t>2013(ermittel auf Feld1)</t>
   </si>
   <si>
-    <t>KAS</t>
-  </si>
-  <si>
     <t>1,2 l</t>
   </si>
   <si>
@@ -312,39 +312,6 @@
     <t>43,1 (kg/ha)</t>
   </si>
   <si>
-    <t>40kg/ha</t>
-  </si>
-  <si>
-    <t>30kg/ha</t>
-  </si>
-  <si>
-    <t>50 kg/ha</t>
-  </si>
-  <si>
-    <t>Keserit Mg25%</t>
-  </si>
-  <si>
-    <t>96 kg/ha</t>
-  </si>
-  <si>
-    <t>P-Dünger</t>
-  </si>
-  <si>
-    <t>192 kg/ha</t>
-  </si>
-  <si>
-    <t>K-Dünger</t>
-  </si>
-  <si>
-    <t>50kg/ha</t>
-  </si>
-  <si>
-    <t>70kg/ha</t>
-  </si>
-  <si>
-    <t>60kg/ha</t>
-  </si>
-  <si>
     <t>Axial 50</t>
   </si>
   <si>
@@ -385,12 +352,24 @@
   </si>
   <si>
     <t>06.-08.06.2017</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>1st magnesium application</t>
+  </si>
+  <si>
+    <t>1st phosphor application</t>
+  </si>
+  <si>
+    <t>1st potassium application</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -608,10 +587,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20 % - Akzent3" xfId="3" builtinId="38"/>
-    <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
-    <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -627,9 +606,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -667,7 +646,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -739,7 +718,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -912,236 +891,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69:E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.140625" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="36.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B21" s="11">
         <v>80</v>
       </c>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B25" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>43</v>
-      </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="12">
         <v>0.13700000000000001</v>
       </c>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -1150,16 +1129,16 @@
       </c>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="12">
         <v>0.78800000000000003</v>
       </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -1168,101 +1147,101 @@
       </c>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="12">
         <v>2.4E-2</v>
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B34" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="C36" s="13">
         <v>42826</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C37" s="13">
         <v>42826</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C38" s="13">
         <v>42826</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C39" s="13">
         <v>42826</v>
       </c>
       <c r="H39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1275,9 +1254,9 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>4</v>
@@ -1292,7 +1271,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>5</v>
@@ -1304,15 +1283,15 @@
         <v>7</v>
       </c>
       <c r="J43" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K43" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>8</v>
@@ -1320,34 +1299,34 @@
       <c r="C44" s="20">
         <v>42817</v>
       </c>
-      <c r="D44" s="14" t="s">
-        <v>98</v>
+      <c r="D44" s="14">
+        <v>40</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44" s="18">
         <v>42845</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I44" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="J44" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>9</v>
@@ -1355,32 +1334,32 @@
       <c r="C45" s="20">
         <v>42880</v>
       </c>
-      <c r="D45" s="21" t="s">
-        <v>99</v>
+      <c r="D45" s="21">
+        <v>30</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G45" s="18">
         <v>42836</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K45" s="8"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>10</v>
@@ -1392,43 +1371,41 @@
         <v>0</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G46" s="18">
         <v>42887</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="C47" s="16">
         <v>42816</v>
       </c>
-      <c r="D47" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>101</v>
-      </c>
+      <c r="D47" s="21">
+        <v>50</v>
+      </c>
+      <c r="E47" s="15"/>
       <c r="F47" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G47" s="7">
         <v>0</v>
@@ -1440,26 +1417,26 @@
         <v>0</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K47" s="8"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="C48" s="16">
         <v>42822</v>
       </c>
-      <c r="D48" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>103</v>
-      </c>
+      <c r="D48" s="21">
+        <v>96</v>
+      </c>
+      <c r="E48" s="15"/>
       <c r="F48" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G48" s="7">
         <v>0</v>
@@ -1471,26 +1448,26 @@
         <v>0</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K48" s="8"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="C49" s="16">
         <v>42822</v>
       </c>
-      <c r="D49" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>105</v>
-      </c>
+      <c r="D49" s="15">
+        <v>192</v>
+      </c>
+      <c r="E49" s="15"/>
       <c r="F49" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G49" s="7">
         <v>0</v>
@@ -1502,20 +1479,20 @@
         <v>0</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K49" s="8"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G50" s="7">
         <v>0</v>
@@ -1529,16 +1506,16 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G51" s="7">
         <v>0</v>
@@ -1552,16 +1529,16 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G52" s="7">
         <v>0</v>
@@ -1575,9 +1552,9 @@
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="54" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>4</v>
@@ -1592,7 +1569,7 @@
         <v>7</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>5</v>
@@ -1604,15 +1581,15 @@
         <v>7</v>
       </c>
       <c r="J54" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K54" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K54" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>8</v>
@@ -1620,34 +1597,34 @@
       <c r="C55" s="20">
         <v>42817</v>
       </c>
-      <c r="D55" s="14" t="s">
-        <v>106</v>
+      <c r="D55" s="14">
+        <v>50</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G55" s="18">
         <v>42845</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>9</v>
@@ -1655,32 +1632,32 @@
       <c r="C56" s="20">
         <v>42880</v>
       </c>
-      <c r="D56" s="21" t="s">
-        <v>107</v>
+      <c r="D56" s="21">
+        <v>70</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G56" s="18">
         <v>42836</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>10</v>
@@ -1688,47 +1665,45 @@
       <c r="C57" s="16">
         <v>42884</v>
       </c>
-      <c r="D57" s="21" t="s">
-        <v>108</v>
+      <c r="D57" s="21">
+        <v>60</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G57" s="18">
         <v>42887</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K57" s="8"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="C58" s="16">
         <v>42816</v>
       </c>
-      <c r="D58" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>101</v>
-      </c>
+      <c r="D58" s="21">
+        <v>50</v>
+      </c>
+      <c r="E58" s="15"/>
       <c r="F58" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G58" s="7">
         <v>0</v>
@@ -1740,26 +1715,26 @@
         <v>0</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="C59" s="16">
         <v>42822</v>
       </c>
-      <c r="D59" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>103</v>
-      </c>
+      <c r="D59" s="21">
+        <v>96</v>
+      </c>
+      <c r="E59" s="15"/>
       <c r="F59" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G59" s="7">
         <v>0</v>
@@ -1771,26 +1746,26 @@
         <v>0</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="C60" s="16">
         <v>42822</v>
       </c>
-      <c r="D60" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>105</v>
-      </c>
+      <c r="D60" s="15">
+        <v>192</v>
+      </c>
+      <c r="E60" s="15"/>
       <c r="F60" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G60" s="7">
         <v>0</v>
@@ -1802,20 +1777,20 @@
         <v>0</v>
       </c>
       <c r="J60" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K60" s="8"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>64</v>
-      </c>
-      <c r="K60" s="8"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>65</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G61" s="7">
         <v>0</v>
@@ -1829,39 +1804,39 @@
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G62" s="18">
         <v>42858</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G63" s="7">
         <v>0</v>
@@ -1875,9 +1850,9 @@
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
     </row>
-    <row r="65" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>4</v>
@@ -1892,7 +1867,7 @@
         <v>7</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G65" s="10" t="s">
         <v>5</v>
@@ -1904,15 +1879,15 @@
         <v>7</v>
       </c>
       <c r="J65" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K65" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K65" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>8</v>
@@ -1920,34 +1895,34 @@
       <c r="C66" s="20">
         <v>42817</v>
       </c>
-      <c r="D66" s="14" t="s">
-        <v>106</v>
+      <c r="D66" s="14">
+        <v>50</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G66" s="18">
         <v>42845</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K66" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>9</v>
@@ -1955,34 +1930,34 @@
       <c r="C67" s="20">
         <v>42880</v>
       </c>
-      <c r="D67" s="21" t="s">
-        <v>107</v>
+      <c r="D67" s="21">
+        <v>70</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G67" s="18">
         <v>42836</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K67" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>10</v>
@@ -1990,49 +1965,47 @@
       <c r="C68" s="16">
         <v>42884</v>
       </c>
-      <c r="D68" s="21" t="s">
-        <v>108</v>
+      <c r="D68" s="21">
+        <v>60</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G68" s="18">
         <v>42887</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K68" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="C69" s="16">
         <v>42816</v>
       </c>
-      <c r="D69" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>101</v>
-      </c>
+      <c r="D69" s="21">
+        <v>50</v>
+      </c>
+      <c r="E69" s="15"/>
       <c r="F69" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G69" s="7">
         <v>0</v>
@@ -2044,134 +2017,134 @@
         <v>0</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K69" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="C70" s="16">
         <v>42822</v>
       </c>
-      <c r="D70" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>103</v>
-      </c>
+      <c r="D70" s="21">
+        <v>96</v>
+      </c>
+      <c r="E70" s="15"/>
       <c r="F70" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G70" s="18">
         <v>42858</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K70" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="C71" s="16">
         <v>42822</v>
       </c>
-      <c r="D71" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>105</v>
-      </c>
+      <c r="D71" s="15">
+        <v>192</v>
+      </c>
+      <c r="E71" s="15"/>
       <c r="F71" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G71" s="18">
         <v>42864</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K71" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G72" s="19">
         <v>42905</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G73" s="18">
         <v>42858</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G74" s="7">
         <v>0</v>
@@ -2191,24 +2164,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/management/Management_information_HAN_2017.xlsx
+++ b/data/management/Management_information_HAN_2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F23881-13E7-AB48-9B9E-6ABBB01661A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2C4887-F7F1-C447-91F9-3B033505D641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="500" windowWidth="30400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="115">
   <si>
     <t xml:space="preserve">Correspondence </t>
   </si>
@@ -255,9 +255,6 @@
     <t>clayey silt (toniger Schluff)</t>
   </si>
   <si>
-    <t>Mais</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -364,6 +361,12 @@
   </si>
   <si>
     <t>1st potassium application</t>
+  </si>
+  <si>
+    <t>maize</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -894,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69:E71"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -920,7 +923,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -928,7 +931,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -996,7 +999,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1012,7 +1015,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1020,7 +1023,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1060,10 +1063,10 @@
         <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1071,7 +1074,7 @@
         <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="1"/>
     </row>
@@ -1080,7 +1083,7 @@
         <v>38</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C24" s="1"/>
     </row>
@@ -1089,7 +1092,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -1098,7 +1101,7 @@
         <v>40</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="C26" s="1"/>
     </row>
@@ -1161,7 +1164,7 @@
         <v>66</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" s="1"/>
     </row>
@@ -1170,7 +1173,7 @@
         <v>67</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="1"/>
     </row>
@@ -1179,7 +1182,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" s="1"/>
     </row>
@@ -1188,7 +1191,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="13">
         <v>42826</v>
@@ -1199,7 +1202,7 @@
         <v>51</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" s="13">
         <v>42826</v>
@@ -1210,7 +1213,7 @@
         <v>52</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="13">
         <v>42826</v>
@@ -1221,13 +1224,13 @@
         <v>50</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" s="13">
         <v>42826</v>
       </c>
       <c r="H39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -1235,7 +1238,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="1"/>
     </row>
@@ -1303,7 +1306,7 @@
         <v>40</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>12</v>
@@ -1312,16 +1315,16 @@
         <v>42845</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>58</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -1338,7 +1341,7 @@
         <v>30</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>13</v>
@@ -1347,10 +1350,10 @@
         <v>42836</v>
       </c>
       <c r="H45" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I45" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>59</v>
@@ -1371,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>14</v>
@@ -1380,10 +1383,10 @@
         <v>42887</v>
       </c>
       <c r="H46" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I46" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>60</v>
@@ -1395,7 +1398,7 @@
         <v>55</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" s="16">
         <v>42816</v>
@@ -1426,7 +1429,7 @@
         <v>55</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C48" s="16">
         <v>42822</v>
@@ -1457,7 +1460,7 @@
         <v>55</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C49" s="16">
         <v>42822</v>
@@ -1601,7 +1604,7 @@
         <v>50</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>12</v>
@@ -1610,16 +1613,16 @@
         <v>42845</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J55" s="8" t="s">
         <v>58</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -1636,7 +1639,7 @@
         <v>70</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>13</v>
@@ -1645,10 +1648,10 @@
         <v>42836</v>
       </c>
       <c r="H56" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I56" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="J56" s="8" t="s">
         <v>59</v>
@@ -1669,7 +1672,7 @@
         <v>60</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>14</v>
@@ -1678,10 +1681,10 @@
         <v>42887</v>
       </c>
       <c r="H57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I57" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="J57" s="8" t="s">
         <v>60</v>
@@ -1693,7 +1696,7 @@
         <v>64</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C58" s="16">
         <v>42816</v>
@@ -1724,7 +1727,7 @@
         <v>64</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C59" s="16">
         <v>42822</v>
@@ -1755,7 +1758,7 @@
         <v>64</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C60" s="16">
         <v>42822</v>
@@ -1819,10 +1822,10 @@
         <v>42858</v>
       </c>
       <c r="H62" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I62" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -1899,7 +1902,7 @@
         <v>50</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>12</v>
@@ -1908,10 +1911,10 @@
         <v>42845</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J66" s="8" t="s">
         <v>58</v>
@@ -1934,7 +1937,7 @@
         <v>70</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>13</v>
@@ -1943,10 +1946,10 @@
         <v>42836</v>
       </c>
       <c r="H67" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I67" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="J67" s="8" t="s">
         <v>59</v>
@@ -1969,7 +1972,7 @@
         <v>60</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>14</v>
@@ -1978,10 +1981,10 @@
         <v>42887</v>
       </c>
       <c r="H68" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I68" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="J68" s="8" t="s">
         <v>60</v>
@@ -1995,7 +1998,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C69" s="16">
         <v>42816</v>
@@ -2028,7 +2031,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C70" s="16">
         <v>42822</v>
@@ -2044,10 +2047,10 @@
         <v>42858</v>
       </c>
       <c r="H70" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I70" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="J70" s="8" t="s">
         <v>62</v>
@@ -2061,7 +2064,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C71" s="16">
         <v>42822</v>
@@ -2077,10 +2080,10 @@
         <v>42864</v>
       </c>
       <c r="H71" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I71" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="J71" s="8" t="s">
         <v>63</v>
@@ -2104,10 +2107,10 @@
         <v>42905</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
@@ -2127,10 +2130,10 @@
         <v>42858</v>
       </c>
       <c r="H73" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I73" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
